--- a/FVA_Testcases_vein authen_230616_v1.0 .xlsx
+++ b/FVA_Testcases_vein authen_230616_v1.0 .xlsx
@@ -1474,9 +1474,6 @@
 </t>
   </si>
   <si>
-    <t>log monitoring: UI</t>
-  </si>
-  <si>
     <t>Search  screen: successful</t>
   </si>
   <si>
@@ -1764,6 +1761,9 @@
 - warning textbox
 - Search &amp; clear button at the right bottom of the screen
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">log monitoring: UI </t>
   </si>
 </sst>
 </file>
@@ -3514,6 +3514,39 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="71" fillId="2" borderId="39" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="2" borderId="61" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3598,39 +3631,6 @@
     </xf>
     <xf numFmtId="0" fontId="65" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="2" borderId="39" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="2" borderId="61" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3937,7 +3937,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3974,13 +3974,13 @@
     <row r="2" spans="1:7" ht="48.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="58"/>
-      <c r="C2" s="143" t="s">
+      <c r="C2" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="142"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="153"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
       <c r="A3" s="1"/>
@@ -3996,9 +3996,9 @@
       <c r="B4" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="144"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="142"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="153"/>
       <c r="F4" s="56" t="s">
         <v>2</v>
       </c>
@@ -4011,9 +4011,9 @@
       <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="145"/>
-      <c r="D5" s="146"/>
-      <c r="E5" s="146"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="157"/>
       <c r="F5" s="6" t="s">
         <v>4</v>
       </c>
@@ -4023,12 +4023,12 @@
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="147" t="s">
+      <c r="B6" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="148"/>
-      <c r="D6" s="149"/>
-      <c r="E6" s="150"/>
+      <c r="C6" s="159"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="161"/>
       <c r="F6" s="56" t="s">
         <v>6</v>
       </c>
@@ -4036,10 +4036,10 @@
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="146"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="152"/>
-      <c r="E7" s="153"/>
+      <c r="B7" s="157"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="164"/>
       <c r="F7" s="56" t="s">
         <v>7</v>
       </c>
@@ -4052,24 +4052,24 @@
       <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="154"/>
-      <c r="D8" s="146"/>
-      <c r="E8" s="146"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="157"/>
+      <c r="G8" s="157"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="140" t="s">
+      <c r="C9" s="151" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="142"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="153"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1">
       <c r="A10" s="1"/>
@@ -4295,48 +4295,48 @@
       <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="159" t="s">
+      <c r="A4" s="170" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="141"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="144" t="s">
+      <c r="B4" s="152"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="155" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="141"/>
-      <c r="F4" s="142"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="153"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1">
-      <c r="A5" s="155" t="s">
+      <c r="A5" s="166" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="141"/>
-      <c r="C5" s="142"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="142"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="153"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1">
-      <c r="A6" s="159" t="s">
+      <c r="A6" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="141"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="142"/>
+      <c r="B6" s="152"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="153"/>
     </row>
     <row r="7" spans="1:6" ht="76.5" customHeight="1">
-      <c r="A7" s="160" t="s">
+      <c r="A7" s="171" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="141"/>
-      <c r="C7" s="142"/>
-      <c r="D7" s="161" t="s">
+      <c r="B7" s="152"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="172" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="141"/>
-      <c r="F7" s="142"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="153"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1">
       <c r="A8" s="20"/>
@@ -4347,23 +4347,23 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1">
-      <c r="A9" s="157" t="s">
+      <c r="A9" s="168" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="156" t="s">
+      <c r="B9" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="162" t="s">
+      <c r="C9" s="152"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="173" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="164" t="s">
+      <c r="F9" s="175" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
-      <c r="A10" s="158"/>
+      <c r="A10" s="169"/>
       <c r="B10" s="59" t="s">
         <v>31</v>
       </c>
@@ -4373,8 +4373,8 @@
       <c r="D10" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="163"/>
-      <c r="F10" s="146"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="157"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1">
       <c r="A11" s="21">
@@ -18362,19 +18362,19 @@
     </row>
     <row r="15" spans="1:12" s="69" customFormat="1" ht="14.25">
       <c r="A15" s="32"/>
-      <c r="B15" s="170" t="s">
+      <c r="B15" s="181" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="171"/>
-      <c r="D15" s="171"/>
-      <c r="E15" s="171"/>
-      <c r="F15" s="171"/>
-      <c r="G15" s="171"/>
-      <c r="H15" s="171"/>
-      <c r="I15" s="171"/>
-      <c r="J15" s="171"/>
-      <c r="K15" s="171"/>
-      <c r="L15" s="172"/>
+      <c r="C15" s="182"/>
+      <c r="D15" s="182"/>
+      <c r="E15" s="182"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="182"/>
+      <c r="H15" s="182"/>
+      <c r="I15" s="182"/>
+      <c r="J15" s="182"/>
+      <c r="K15" s="182"/>
+      <c r="L15" s="183"/>
     </row>
     <row r="16" spans="1:12" ht="124.5" customHeight="1">
       <c r="A16" s="32"/>
@@ -18392,7 +18392,7 @@
       </c>
       <c r="F16" s="114"/>
       <c r="G16" s="74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H16" s="50" t="s">
         <v>45</v>
@@ -18498,7 +18498,7 @@
       </c>
       <c r="F20" s="117"/>
       <c r="G20" s="100" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H20" s="65" t="s">
         <v>45</v>
@@ -18521,14 +18521,14 @@
         <v>83</v>
       </c>
       <c r="D21" s="101" t="s">
+        <v>270</v>
+      </c>
+      <c r="E21" s="99" t="s">
         <v>271</v>
-      </c>
-      <c r="E21" s="99" t="s">
-        <v>272</v>
       </c>
       <c r="F21" s="117"/>
       <c r="G21" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H21" s="65" t="s">
         <v>45</v>
@@ -18551,7 +18551,7 @@
         <v>83</v>
       </c>
       <c r="D22" s="98" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E22" s="99" t="s">
         <v>105</v>
@@ -18581,7 +18581,7 @@
         <v>83</v>
       </c>
       <c r="D23" s="98" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E23" s="99" t="s">
         <v>104</v>
@@ -18611,14 +18611,14 @@
         <v>83</v>
       </c>
       <c r="D24" s="98" t="s">
+        <v>284</v>
+      </c>
+      <c r="E24" s="99" t="s">
         <v>285</v>
-      </c>
-      <c r="E24" s="99" t="s">
-        <v>286</v>
       </c>
       <c r="F24" s="117"/>
       <c r="G24" s="100" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H24" s="65" t="s">
         <v>45</v>
@@ -18639,14 +18639,14 @@
         <v>83</v>
       </c>
       <c r="D25" s="98" t="s">
+        <v>287</v>
+      </c>
+      <c r="E25" s="99" t="s">
         <v>288</v>
-      </c>
-      <c r="E25" s="99" t="s">
-        <v>289</v>
       </c>
       <c r="F25" s="117"/>
       <c r="G25" s="100" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H25" s="65" t="s">
         <v>45</v>
@@ -18667,14 +18667,14 @@
         <v>83</v>
       </c>
       <c r="D26" s="98" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E26" s="99" t="s">
         <v>107</v>
       </c>
       <c r="F26" s="117"/>
       <c r="G26" s="100" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H26" s="65" t="s">
         <v>45</v>
@@ -18697,7 +18697,7 @@
         <v>84</v>
       </c>
       <c r="D27" s="98" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E27" s="99" t="s">
         <v>109</v>
@@ -18810,19 +18810,19 @@
     </row>
     <row r="31" spans="1:12" s="69" customFormat="1" ht="14.25">
       <c r="A31" s="32"/>
-      <c r="B31" s="165" t="s">
+      <c r="B31" s="176" t="s">
         <v>132</v>
       </c>
-      <c r="C31" s="166"/>
-      <c r="D31" s="166"/>
-      <c r="E31" s="166"/>
-      <c r="F31" s="166"/>
-      <c r="G31" s="166"/>
-      <c r="H31" s="166"/>
-      <c r="I31" s="166"/>
-      <c r="J31" s="166"/>
-      <c r="K31" s="166"/>
-      <c r="L31" s="167"/>
+      <c r="C31" s="177"/>
+      <c r="D31" s="177"/>
+      <c r="E31" s="177"/>
+      <c r="F31" s="177"/>
+      <c r="G31" s="177"/>
+      <c r="H31" s="177"/>
+      <c r="I31" s="177"/>
+      <c r="J31" s="177"/>
+      <c r="K31" s="177"/>
+      <c r="L31" s="178"/>
     </row>
     <row r="32" spans="1:12" ht="242.25">
       <c r="A32" s="32"/>
@@ -18888,21 +18888,21 @@
     </row>
     <row r="34" spans="1:12" s="69" customFormat="1" ht="14.25">
       <c r="A34" s="32"/>
-      <c r="B34" s="165" t="s">
+      <c r="B34" s="176" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="166"/>
-      <c r="D34" s="166"/>
-      <c r="E34" s="166"/>
-      <c r="F34" s="166"/>
-      <c r="G34" s="166"/>
-      <c r="H34" s="166"/>
-      <c r="I34" s="166"/>
-      <c r="J34" s="166"/>
-      <c r="K34" s="166"/>
-      <c r="L34" s="167"/>
-    </row>
-    <row r="35" spans="1:12" ht="280.5">
+      <c r="C34" s="177"/>
+      <c r="D34" s="177"/>
+      <c r="E34" s="177"/>
+      <c r="F34" s="177"/>
+      <c r="G34" s="177"/>
+      <c r="H34" s="177"/>
+      <c r="I34" s="177"/>
+      <c r="J34" s="177"/>
+      <c r="K34" s="177"/>
+      <c r="L34" s="178"/>
+    </row>
+    <row r="35" spans="1:12" ht="267.75">
       <c r="A35" s="32"/>
       <c r="B35" s="87">
         <v>17</v>
@@ -18966,19 +18966,19 @@
     </row>
     <row r="37" spans="1:12" s="69" customFormat="1" ht="14.25">
       <c r="A37" s="32"/>
-      <c r="B37" s="165" t="s">
+      <c r="B37" s="176" t="s">
         <v>134</v>
       </c>
-      <c r="C37" s="168"/>
-      <c r="D37" s="168"/>
-      <c r="E37" s="168"/>
-      <c r="F37" s="168"/>
-      <c r="G37" s="168"/>
-      <c r="H37" s="168"/>
-      <c r="I37" s="168"/>
-      <c r="J37" s="168"/>
-      <c r="K37" s="168"/>
-      <c r="L37" s="169"/>
+      <c r="C37" s="179"/>
+      <c r="D37" s="179"/>
+      <c r="E37" s="179"/>
+      <c r="F37" s="179"/>
+      <c r="G37" s="179"/>
+      <c r="H37" s="179"/>
+      <c r="I37" s="179"/>
+      <c r="J37" s="179"/>
+      <c r="K37" s="179"/>
+      <c r="L37" s="180"/>
     </row>
     <row r="38" spans="1:12" ht="255">
       <c r="A38" s="32"/>
@@ -19268,19 +19268,19 @@
     </row>
     <row r="47" spans="1:12" s="69" customFormat="1" ht="14.25">
       <c r="A47" s="32"/>
-      <c r="B47" s="165" t="s">
+      <c r="B47" s="176" t="s">
         <v>135</v>
       </c>
-      <c r="C47" s="166"/>
-      <c r="D47" s="166"/>
-      <c r="E47" s="166"/>
-      <c r="F47" s="166"/>
-      <c r="G47" s="166"/>
-      <c r="H47" s="166"/>
-      <c r="I47" s="166"/>
-      <c r="J47" s="166"/>
-      <c r="K47" s="166"/>
-      <c r="L47" s="167"/>
+      <c r="C47" s="177"/>
+      <c r="D47" s="177"/>
+      <c r="E47" s="177"/>
+      <c r="F47" s="177"/>
+      <c r="G47" s="177"/>
+      <c r="H47" s="177"/>
+      <c r="I47" s="177"/>
+      <c r="J47" s="177"/>
+      <c r="K47" s="177"/>
+      <c r="L47" s="178"/>
     </row>
     <row r="48" spans="1:12" s="69" customFormat="1" ht="242.25">
       <c r="A48" s="32"/>
@@ -19346,19 +19346,19 @@
     </row>
     <row r="50" spans="1:12" ht="14.25">
       <c r="A50" s="32"/>
-      <c r="B50" s="165" t="s">
-        <v>261</v>
-      </c>
-      <c r="C50" s="166"/>
-      <c r="D50" s="166"/>
-      <c r="E50" s="166"/>
-      <c r="F50" s="166"/>
-      <c r="G50" s="166"/>
-      <c r="H50" s="166"/>
-      <c r="I50" s="166"/>
-      <c r="J50" s="166"/>
-      <c r="K50" s="166"/>
-      <c r="L50" s="167"/>
+      <c r="B50" s="176" t="s">
+        <v>260</v>
+      </c>
+      <c r="C50" s="177"/>
+      <c r="D50" s="177"/>
+      <c r="E50" s="177"/>
+      <c r="F50" s="177"/>
+      <c r="G50" s="177"/>
+      <c r="H50" s="177"/>
+      <c r="I50" s="177"/>
+      <c r="J50" s="177"/>
+      <c r="K50" s="177"/>
+      <c r="L50" s="178"/>
     </row>
     <row r="51" spans="1:12" ht="165.75">
       <c r="A51" s="32"/>
@@ -19369,16 +19369,16 @@
         <v>83</v>
       </c>
       <c r="D51" s="98" t="s">
+        <v>261</v>
+      </c>
+      <c r="E51" s="99" t="s">
         <v>262</v>
-      </c>
-      <c r="E51" s="99" t="s">
-        <v>263</v>
       </c>
       <c r="F51" s="117" t="s">
         <v>130</v>
       </c>
       <c r="G51" s="100" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H51" s="65" t="s">
         <v>45</v>
@@ -19397,20 +19397,20 @@
       <c r="B52" s="87">
         <v>31</v>
       </c>
-      <c r="C52" s="176" t="s">
+      <c r="C52" s="141" t="s">
         <v>83</v>
       </c>
-      <c r="D52" s="177" t="s">
+      <c r="D52" s="142" t="s">
+        <v>264</v>
+      </c>
+      <c r="E52" s="143" t="s">
         <v>265</v>
-      </c>
-      <c r="E52" s="178" t="s">
-        <v>266</v>
       </c>
       <c r="F52" s="115" t="s">
         <v>130</v>
       </c>
-      <c r="G52" s="179" t="s">
-        <v>267</v>
+      <c r="G52" s="144" t="s">
+        <v>266</v>
       </c>
       <c r="H52" s="83" t="s">
         <v>45</v>
@@ -19429,32 +19429,32 @@
       <c r="B53" s="32">
         <v>32</v>
       </c>
-      <c r="C53" s="180" t="s">
+      <c r="C53" s="145" t="s">
         <v>83</v>
       </c>
-      <c r="D53" s="181" t="s">
+      <c r="D53" s="146" t="s">
+        <v>293</v>
+      </c>
+      <c r="E53" s="147" t="s">
         <v>294</v>
       </c>
-      <c r="E53" s="182" t="s">
+      <c r="F53" s="146"/>
+      <c r="G53" s="147" t="s">
         <v>295</v>
       </c>
-      <c r="F53" s="181"/>
-      <c r="G53" s="182" t="s">
+      <c r="H53" s="148" t="s">
+        <v>48</v>
+      </c>
+      <c r="I53" s="149" t="s">
         <v>296</v>
       </c>
-      <c r="H53" s="183" t="s">
-        <v>48</v>
-      </c>
-      <c r="I53" s="184" t="s">
-        <v>297</v>
-      </c>
-      <c r="J53" s="183" t="s">
+      <c r="J53" s="148" t="s">
         <v>45</v>
       </c>
-      <c r="K53" s="185" t="s">
+      <c r="K53" s="150" t="s">
         <v>69</v>
       </c>
-      <c r="L53" s="180"/>
+      <c r="L53" s="145"/>
     </row>
     <row r="54" spans="1:12" ht="14.25">
       <c r="A54" s="32"/>
@@ -33108,7 +33108,7 @@
   <dimension ref="A1:L1018"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
@@ -33448,19 +33448,19 @@
     </row>
     <row r="15" spans="1:12" ht="14.25">
       <c r="A15" s="32"/>
-      <c r="B15" s="170" t="s">
+      <c r="B15" s="181" t="s">
         <v>175</v>
       </c>
-      <c r="C15" s="171"/>
-      <c r="D15" s="171"/>
-      <c r="E15" s="171"/>
-      <c r="F15" s="171"/>
-      <c r="G15" s="171"/>
-      <c r="H15" s="171"/>
-      <c r="I15" s="171"/>
-      <c r="J15" s="171"/>
-      <c r="K15" s="171"/>
-      <c r="L15" s="172"/>
+      <c r="C15" s="182"/>
+      <c r="D15" s="182"/>
+      <c r="E15" s="182"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="182"/>
+      <c r="H15" s="182"/>
+      <c r="I15" s="182"/>
+      <c r="J15" s="182"/>
+      <c r="K15" s="182"/>
+      <c r="L15" s="183"/>
     </row>
     <row r="16" spans="1:12" ht="216.75">
       <c r="A16" s="32"/>
@@ -33470,21 +33470,21 @@
       <c r="C16" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="98" t="s">
-        <v>258</v>
+      <c r="D16" s="64" t="s">
+        <v>300</v>
       </c>
       <c r="E16" s="99" t="s">
         <v>174</v>
       </c>
       <c r="F16" s="117"/>
       <c r="G16" s="74" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H16" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="175" t="s">
-        <v>299</v>
+      <c r="I16" s="140" t="s">
+        <v>298</v>
       </c>
       <c r="J16" s="65" t="s">
         <v>45</v>
@@ -33503,7 +33503,7 @@
         <v>83</v>
       </c>
       <c r="D17" s="81" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E17" s="99" t="s">
         <v>201</v>
@@ -33512,7 +33512,7 @@
         <v>178</v>
       </c>
       <c r="G17" s="74" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H17" s="65" t="s">
         <v>45</v>
@@ -33528,19 +33528,19 @@
     </row>
     <row r="18" spans="1:12" ht="14.25">
       <c r="A18" s="32"/>
-      <c r="B18" s="170" t="s">
+      <c r="B18" s="181" t="s">
         <v>176</v>
       </c>
-      <c r="C18" s="171"/>
-      <c r="D18" s="171"/>
-      <c r="E18" s="171"/>
-      <c r="F18" s="171"/>
-      <c r="G18" s="171"/>
-      <c r="H18" s="171"/>
-      <c r="I18" s="171"/>
-      <c r="J18" s="171"/>
-      <c r="K18" s="171"/>
-      <c r="L18" s="172"/>
+      <c r="C18" s="182"/>
+      <c r="D18" s="182"/>
+      <c r="E18" s="182"/>
+      <c r="F18" s="182"/>
+      <c r="G18" s="182"/>
+      <c r="H18" s="182"/>
+      <c r="I18" s="182"/>
+      <c r="J18" s="182"/>
+      <c r="K18" s="182"/>
+      <c r="L18" s="183"/>
     </row>
     <row r="19" spans="1:12" ht="86.25" customHeight="1">
       <c r="A19" s="32"/>
@@ -33842,7 +33842,7 @@
       </c>
       <c r="F28" s="117"/>
       <c r="G28" s="100" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H28" s="65" t="s">
         <v>45</v>
@@ -33906,7 +33906,7 @@
         <v>179</v>
       </c>
       <c r="G30" s="100" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H30" s="65" t="s">
         <v>45</v>
@@ -33996,7 +33996,7 @@
         <v>188</v>
       </c>
       <c r="E33" s="99" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F33" s="117" t="s">
         <v>234</v>
@@ -34034,7 +34034,7 @@
         <v>237</v>
       </c>
       <c r="G34" s="100" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H34" s="65" t="s">
         <v>45</v>
@@ -34066,7 +34066,7 @@
         <v>239</v>
       </c>
       <c r="G35" s="100" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H35" s="65" t="s">
         <v>45</v>
@@ -34121,7 +34121,7 @@
         <v>83</v>
       </c>
       <c r="D37" s="101" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E37" s="99" t="s">
         <v>240</v>
@@ -34130,7 +34130,7 @@
         <v>234</v>
       </c>
       <c r="G37" s="100" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H37" s="65" t="s">
         <v>45</v>
@@ -34281,16 +34281,16 @@
         <v>83</v>
       </c>
       <c r="D42" s="101" t="s">
+        <v>280</v>
+      </c>
+      <c r="E42" s="99" t="s">
         <v>281</v>
-      </c>
-      <c r="E42" s="99" t="s">
-        <v>282</v>
       </c>
       <c r="F42" s="117" t="s">
         <v>227</v>
       </c>
       <c r="G42" s="100" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H42" s="65" t="s">
         <v>45</v>
@@ -48032,24 +48032,24 @@
       <c r="A2" s="53"/>
       <c r="B2" s="53"/>
       <c r="C2" s="53"/>
-      <c r="D2" s="173" t="s">
+      <c r="D2" s="184" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="174" t="s">
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="185" t="s">
         <v>63</v>
       </c>
-      <c r="L2" s="146"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="146"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="146"/>
-      <c r="Q2" s="146"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="157"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
     </row>
     <row r="3" spans="1:17" ht="27" customHeight="1">
       <c r="A3" s="53"/>
@@ -48103,7 +48103,7 @@
     <row r="4" spans="1:17" ht="13.5" customHeight="1">
       <c r="A4" s="53"/>
       <c r="B4" s="128" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C4" s="53"/>
       <c r="D4" s="128">
@@ -48163,7 +48163,7 @@
     <row r="5" spans="1:17" ht="13.5" customHeight="1">
       <c r="A5" s="53"/>
       <c r="B5" s="130" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C5" s="53"/>
       <c r="D5" s="128">
